--- a/Tests/Test results.xlsx
+++ b/Tests/Test results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpecializedTranslation\第二学期\CompLing\Aria\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320975D-84C1-4C78-BF76-0FBA173F5278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03E00B8-F826-402F-B90E-F6E3C1C7E2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="590" windowWidth="11470" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Text representation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-gram tfidf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input layer neuron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>second layer neuron</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>word tfidf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>word svd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +120,90 @@
   </si>
   <si>
     <t>k=1, accuracy=0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First layer neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word tfidf (dimensions=4017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-gram tfidf (dimensions=3052)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +221,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -175,15 +261,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -464,15 +563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="3"/>
+    <col min="9" max="9" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.3">
@@ -480,33 +581,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B2">
         <v>96</v>
@@ -520,7 +621,7 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>41.86</v>
       </c>
       <c r="G2">
@@ -529,12 +630,12 @@
       <c r="H2">
         <v>1.5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="5"/>
       <c r="B3">
         <v>128</v>
       </c>
@@ -547,7 +648,7 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>43.88</v>
       </c>
       <c r="G3">
@@ -556,12 +657,12 @@
       <c r="H3">
         <v>1.59</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="5"/>
       <c r="B4">
         <v>64</v>
       </c>
@@ -574,7 +675,7 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>42.58</v>
       </c>
       <c r="G4">
@@ -583,124 +684,122 @@
       <c r="H4">
         <v>1.55</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5">
         <v>128</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="G5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H5">
+        <v>2.54</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42.18</v>
+      </c>
+      <c r="G6">
+        <v>3.45</v>
+      </c>
+      <c r="H6">
+        <v>1.56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>41.72</v>
+      </c>
+      <c r="G7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
         <v>41.45</v>
       </c>
-      <c r="G5">
+      <c r="G8">
         <v>1.66</v>
       </c>
-      <c r="H5">
+      <c r="H8">
         <v>1.56</v>
       </c>
-      <c r="I5">
+      <c r="I8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6">
-        <v>96</v>
-      </c>
-      <c r="C6">
-        <v>256</v>
-      </c>
-      <c r="D6">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>39.11</v>
-      </c>
-      <c r="G6">
-        <v>2.16</v>
-      </c>
-      <c r="H6">
-        <v>1.73</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
-        <v>96</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>40.26</v>
-      </c>
-      <c r="G7">
-        <v>2.62</v>
-      </c>
-      <c r="H7">
-        <v>1.53</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>96</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>30.49</v>
-      </c>
-      <c r="G8">
-        <v>3.14</v>
-      </c>
-      <c r="H8">
-        <v>1.66</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="6"/>
       <c r="B9">
         <v>96</v>
       </c>
@@ -711,135 +810,133 @@
         <v>64</v>
       </c>
       <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>31.41</v>
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
+        <v>39.11</v>
       </c>
       <c r="G9">
-        <v>2.56</v>
+        <v>2.16</v>
       </c>
       <c r="H9">
-        <v>1.67</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
+        <v>1.73</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="6"/>
       <c r="B10">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C10">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>96</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>40.26</v>
+      </c>
+      <c r="G10">
+        <v>2.62</v>
+      </c>
+      <c r="H10">
+        <v>1.53</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+      <c r="D11">
         <v>64</v>
       </c>
-      <c r="D10">
-        <v>96</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>31.36</v>
-      </c>
-      <c r="G10">
-        <v>3.2</v>
-      </c>
-      <c r="H10">
-        <v>1.68</v>
-      </c>
-      <c r="I10">
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>40.21</v>
+      </c>
+      <c r="G11">
+        <v>1.6</v>
+      </c>
+      <c r="H11">
+        <v>1.51</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41.86</v>
+      </c>
+      <c r="G12">
+        <v>1.87</v>
+      </c>
+      <c r="H12">
+        <v>1.49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>256</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40.35</v>
+      </c>
+      <c r="G13">
+        <v>4.09</v>
+      </c>
+      <c r="H13">
+        <v>1.58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>128</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>128</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>41.86</v>
-      </c>
-      <c r="G11">
-        <v>4.32</v>
-      </c>
-      <c r="H11">
-        <v>2.63</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12">
-        <v>96</v>
-      </c>
-      <c r="C12">
-        <v>64</v>
-      </c>
-      <c r="D12">
-        <v>128</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>42.04</v>
-      </c>
-      <c r="G12">
-        <v>4.13</v>
-      </c>
-      <c r="H12">
-        <v>1.59</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13">
-        <v>96</v>
-      </c>
-      <c r="C13">
-        <v>64</v>
-      </c>
-      <c r="D13">
-        <v>128</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>42.37</v>
-      </c>
-      <c r="G13">
-        <v>3.83</v>
-      </c>
-      <c r="H13">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="B14">
         <v>128</v>
       </c>
@@ -847,82 +944,80 @@
         <v>96</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>35.950000000000003</v>
+      <c r="F14" s="3">
+        <v>30.49</v>
       </c>
       <c r="G14">
-        <v>2.34</v>
+        <v>3.14</v>
       </c>
       <c r="H14">
-        <v>1.58</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
+        <v>1.66</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="6"/>
       <c r="B15">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>256</v>
       </c>
       <c r="D15">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>35.26</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
+        <v>31.41</v>
       </c>
       <c r="G15">
-        <v>2.1800000000000002</v>
+        <v>2.56</v>
       </c>
       <c r="H15">
-        <v>1.58</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
+        <v>1.67</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="6"/>
       <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16">
         <v>64</v>
       </c>
-      <c r="C16">
-        <v>256</v>
-      </c>
       <c r="D16">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>31.36</v>
       </c>
       <c r="G16">
-        <v>1.94</v>
+        <v>3.2</v>
       </c>
       <c r="H16">
-        <v>1.63</v>
-      </c>
-      <c r="I16">
-        <v>15</v>
+        <v>1.68</v>
+      </c>
+      <c r="I16" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17">
         <v>32</v>
       </c>
@@ -935,21 +1030,21 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>26.36</v>
       </c>
       <c r="G17">
-        <v>3.69</v>
+        <v>2.29</v>
       </c>
       <c r="H17">
-        <v>1.73</v>
-      </c>
-      <c r="I17">
-        <v>16</v>
+        <v>1.72</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="6"/>
       <c r="B18">
         <v>96</v>
       </c>
@@ -962,21 +1057,21 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>25.45</v>
+      <c r="F18" s="3">
+        <v>26.5</v>
       </c>
       <c r="G18">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="H18">
-        <v>1.73</v>
-      </c>
-      <c r="I18">
-        <v>17</v>
+        <v>1.71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6"/>
       <c r="B19">
         <v>32</v>
       </c>
@@ -989,149 +1084,631 @@
       <c r="E19">
         <v>14</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
+        <v>29.02</v>
+      </c>
+      <c r="G19">
+        <v>3.57</v>
+      </c>
+      <c r="H19">
+        <v>1.7</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>128</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
+        <v>41.86</v>
+      </c>
+      <c r="G20">
+        <v>4.32</v>
+      </c>
+      <c r="H20">
+        <v>2.63</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>42.04</v>
+      </c>
+      <c r="G21">
+        <v>4.13</v>
+      </c>
+      <c r="H21">
+        <v>1.59</v>
+      </c>
+      <c r="I21" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22">
+        <v>96</v>
+      </c>
+      <c r="C22">
+        <v>64</v>
+      </c>
+      <c r="D22">
+        <v>128</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42.37</v>
+      </c>
+      <c r="G22">
+        <v>3.83</v>
+      </c>
+      <c r="H22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I22" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23">
+        <v>96</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>42.6</v>
+      </c>
+      <c r="G23">
+        <v>2.68</v>
+      </c>
+      <c r="H23">
+        <v>1.52</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24">
+        <v>128</v>
+      </c>
+      <c r="C24">
+        <v>96</v>
+      </c>
+      <c r="D24">
+        <v>256</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42.96</v>
+      </c>
+      <c r="G24">
+        <v>2.23</v>
+      </c>
+      <c r="H24">
+        <v>1.69</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>128</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>41.77</v>
+      </c>
+      <c r="G25">
+        <v>3.91</v>
+      </c>
+      <c r="H25">
+        <v>1.58</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>128</v>
+      </c>
+      <c r="C26">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="G26">
+        <v>2.34</v>
+      </c>
+      <c r="H26">
+        <v>1.58</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>256</v>
+      </c>
+      <c r="D27">
+        <v>128</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>35.26</v>
+      </c>
+      <c r="G27">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H27">
+        <v>1.58</v>
+      </c>
+      <c r="I27" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>256</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>1.94</v>
+      </c>
+      <c r="H28">
+        <v>1.63</v>
+      </c>
+      <c r="I28" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
+        <v>37.92</v>
+      </c>
+      <c r="G29">
+        <v>1.96</v>
+      </c>
+      <c r="H29">
+        <v>1.61</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>256</v>
+      </c>
+      <c r="D30">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>36.82</v>
+      </c>
+      <c r="G30">
+        <v>2.23</v>
+      </c>
+      <c r="H30">
+        <v>1.74</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3">
+        <v>35.85</v>
+      </c>
+      <c r="G31">
+        <v>1.88</v>
+      </c>
+      <c r="H31">
+        <v>1.61</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>256</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>26.36</v>
+      </c>
+      <c r="G32">
+        <v>3.69</v>
+      </c>
+      <c r="H32">
+        <v>1.73</v>
+      </c>
+      <c r="I32" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33">
+        <v>96</v>
+      </c>
+      <c r="C33">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>256</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>25.45</v>
+      </c>
+      <c r="G33">
+        <v>3.47</v>
+      </c>
+      <c r="H33">
+        <v>1.73</v>
+      </c>
+      <c r="I33" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>96</v>
+      </c>
+      <c r="D34">
+        <v>128</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3">
         <v>23.38</v>
       </c>
-      <c r="G19">
+      <c r="G34">
         <v>2.54</v>
       </c>
-      <c r="H19">
+      <c r="H34">
         <v>1.74</v>
       </c>
-      <c r="I19">
+      <c r="I34" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35">
+        <v>128</v>
+      </c>
+      <c r="C35">
+        <v>96</v>
+      </c>
+      <c r="D35">
+        <v>96</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
+        <v>26.82</v>
+      </c>
+      <c r="G35">
+        <v>3.16</v>
+      </c>
+      <c r="H35">
+        <v>1.74</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36">
+        <v>96</v>
+      </c>
+      <c r="C36">
+        <v>256</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3">
+        <v>26.64</v>
+      </c>
+      <c r="G36">
+        <v>2.27</v>
+      </c>
+      <c r="H36">
+        <v>1.74</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37">
+        <v>128</v>
+      </c>
+      <c r="C37">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>96</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3">
+        <v>26.41</v>
+      </c>
+      <c r="G37">
+        <v>2.16</v>
+      </c>
+      <c r="H37">
+        <v>1.75</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3">
         <v>24</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
